--- a/Doc/report_demo.xlsx
+++ b/Doc/report_demo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/SSD 1TB/code/GEpmTool/Doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDE55610-F944-BE46-9618-7FB4FFE43490}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C7621AF-F7EE-0345-AED4-5FED847309E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="620" windowWidth="19200" windowHeight="19400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t xml:space="preserve">
 Preventive Maintenance
@@ -122,21 +122,13 @@
   <si>
     <t>Customer Signature ______________________</t>
   </si>
-  <si>
-    <t>Mandy.Lam</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>9496 1668</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="1">
-    <numFmt numFmtId="180" formatCode="[$-409]mmm\-yy;@"/>
+    <numFmt numFmtId="176" formatCode="[$-409]mmm\-yy;@"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -359,7 +351,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -374,6 +366,18 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -387,18 +391,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -649,7 +641,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1652905</xdr:colOff>
+      <xdr:colOff>1500505</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>186055</xdr:rowOff>
     </xdr:to>
@@ -951,7 +943,7 @@
   <dimension ref="A2:WNG35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.5" defaultRowHeight="15"/>
@@ -975,28 +967,28 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:15" ht="38" customHeight="1">
-      <c r="J2" s="26" t="s">
+      <c r="J2" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="K2" s="26"/>
-      <c r="L2" s="26"/>
-      <c r="M2" s="26"/>
-      <c r="N2" s="26"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="21"/>
+      <c r="N2" s="21"/>
     </row>
     <row r="3" spans="1:15" ht="38" customHeight="1">
-      <c r="J3" s="26"/>
-      <c r="K3" s="26"/>
-      <c r="L3" s="26"/>
-      <c r="M3" s="26"/>
-      <c r="N3" s="26"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="21"/>
+      <c r="M3" s="21"/>
+      <c r="N3" s="21"/>
       <c r="O3" s="19"/>
     </row>
     <row r="4" spans="1:15" ht="38" customHeight="1">
-      <c r="J4" s="26"/>
-      <c r="K4" s="26"/>
-      <c r="L4" s="26"/>
-      <c r="M4" s="26"/>
-      <c r="N4" s="26"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="21"/>
+      <c r="M4" s="21"/>
+      <c r="N4" s="21"/>
     </row>
     <row r="5" spans="1:15" ht="38" customHeight="1">
       <c r="J5" s="15"/>
@@ -1006,10 +998,10 @@
       <c r="N5" s="15"/>
     </row>
     <row r="6" spans="1:15" ht="38" customHeight="1">
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="21"/>
+      <c r="C6" s="25"/>
       <c r="D6" s="4"/>
     </row>
     <row r="7" spans="1:15" s="1" customFormat="1" ht="38" customHeight="1">
@@ -1417,39 +1409,35 @@
       <c r="N27" s="6"/>
     </row>
     <row r="28" spans="1:14" ht="36" customHeight="1">
-      <c r="A28" s="22" t="s">
+      <c r="A28" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="B28" s="22"/>
-      <c r="C28" s="22"/>
-      <c r="D28" s="22"/>
-      <c r="E28" s="22"/>
-      <c r="F28" s="22"/>
-      <c r="G28" s="22"/>
-      <c r="H28" s="22"/>
-      <c r="I28" s="22"/>
-      <c r="J28" s="22"/>
-      <c r="K28" s="22"/>
-      <c r="L28" s="22"/>
-      <c r="M28" s="22"/>
-      <c r="N28" s="22"/>
+      <c r="B28" s="26"/>
+      <c r="C28" s="26"/>
+      <c r="D28" s="26"/>
+      <c r="E28" s="26"/>
+      <c r="F28" s="26"/>
+      <c r="G28" s="26"/>
+      <c r="H28" s="26"/>
+      <c r="I28" s="26"/>
+      <c r="J28" s="26"/>
+      <c r="K28" s="26"/>
+      <c r="L28" s="26"/>
+      <c r="M28" s="26"/>
+      <c r="N28" s="26"/>
     </row>
     <row r="29" spans="1:14" ht="36" customHeight="1">
-      <c r="A29" s="23" t="s">
+      <c r="A29" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="B29" s="24"/>
-      <c r="C29" s="24"/>
-      <c r="D29" s="24"/>
-      <c r="E29" s="11" t="s">
-        <v>24</v>
-      </c>
+      <c r="B29" s="28"/>
+      <c r="C29" s="28"/>
+      <c r="D29" s="28"/>
+      <c r="E29" s="11"/>
       <c r="F29" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="G29" s="11" t="s">
-        <v>25</v>
-      </c>
+      <c r="G29" s="11"/>
       <c r="H29" s="13" t="s">
         <v>19</v>
       </c>
@@ -1464,20 +1452,20 @@
       <c r="N29" s="20"/>
     </row>
     <row r="30" spans="1:14" ht="36" customHeight="1">
-      <c r="A30" s="23" t="s">
+      <c r="A30" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="B30" s="24"/>
-      <c r="C30" s="24"/>
-      <c r="D30" s="24"/>
+      <c r="B30" s="28"/>
+      <c r="C30" s="28"/>
+      <c r="D30" s="28"/>
       <c r="E30" s="14"/>
       <c r="F30" s="9" t="s">
         <v>21</v>
       </c>
       <c r="G30" s="11"/>
       <c r="H30" s="12"/>
-      <c r="I30" s="25"/>
-      <c r="J30" s="25"/>
+      <c r="I30" s="29"/>
+      <c r="J30" s="29"/>
       <c r="K30" s="18"/>
       <c r="L30" s="18"/>
       <c r="M30" s="18"/>
@@ -1485,48 +1473,48 @@
     </row>
     <row r="31" spans="1:14" ht="26" customHeight="1"/>
     <row r="32" spans="1:14" ht="38" customHeight="1">
-      <c r="A32" s="27" t="s">
+      <c r="A32" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="B32" s="27"/>
-      <c r="C32" s="27"/>
-      <c r="D32" s="27"/>
-      <c r="E32" s="27"/>
-      <c r="F32" s="27"/>
-      <c r="G32" s="27"/>
-      <c r="H32" s="27"/>
+      <c r="B32" s="22"/>
+      <c r="C32" s="22"/>
+      <c r="D32" s="22"/>
+      <c r="E32" s="22"/>
+      <c r="F32" s="22"/>
+      <c r="G32" s="22"/>
+      <c r="H32" s="22"/>
     </row>
     <row r="33" spans="1:14" ht="38" customHeight="1">
-      <c r="A33" s="27"/>
-      <c r="B33" s="27"/>
-      <c r="C33" s="27"/>
-      <c r="D33" s="27"/>
-      <c r="E33" s="27"/>
-      <c r="F33" s="27"/>
-      <c r="G33" s="27"/>
-      <c r="H33" s="27"/>
-      <c r="J33" s="28" t="s">
+      <c r="A33" s="22"/>
+      <c r="B33" s="22"/>
+      <c r="C33" s="22"/>
+      <c r="D33" s="22"/>
+      <c r="E33" s="22"/>
+      <c r="F33" s="22"/>
+      <c r="G33" s="22"/>
+      <c r="H33" s="22"/>
+      <c r="J33" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="K33" s="29"/>
-      <c r="L33" s="29"/>
-      <c r="M33" s="29"/>
-      <c r="N33" s="29"/>
+      <c r="K33" s="24"/>
+      <c r="L33" s="24"/>
+      <c r="M33" s="24"/>
+      <c r="N33" s="24"/>
     </row>
     <row r="34" spans="1:14" ht="38" customHeight="1">
-      <c r="A34" s="27"/>
-      <c r="B34" s="27"/>
-      <c r="C34" s="27"/>
-      <c r="D34" s="27"/>
-      <c r="E34" s="27"/>
-      <c r="F34" s="27"/>
-      <c r="G34" s="27"/>
-      <c r="H34" s="27"/>
-      <c r="J34" s="29"/>
-      <c r="K34" s="29"/>
-      <c r="L34" s="29"/>
-      <c r="M34" s="29"/>
-      <c r="N34" s="29"/>
+      <c r="A34" s="22"/>
+      <c r="B34" s="22"/>
+      <c r="C34" s="22"/>
+      <c r="D34" s="22"/>
+      <c r="E34" s="22"/>
+      <c r="F34" s="22"/>
+      <c r="G34" s="22"/>
+      <c r="H34" s="22"/>
+      <c r="J34" s="24"/>
+      <c r="K34" s="24"/>
+      <c r="L34" s="24"/>
+      <c r="M34" s="24"/>
+      <c r="N34" s="24"/>
     </row>
     <row r="35" spans="1:14" ht="38" customHeight="1"/>
   </sheetData>
